--- a/myweb/data/Excel/Vendor Management.xlsx
+++ b/myweb/data/Excel/Vendor Management.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,123 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$I$6:$K$6</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>DC Ads</t>
+  </si>
+  <si>
+    <t>DEE CEE Digital Lighting</t>
+  </si>
+  <si>
+    <t>Digital Image</t>
+  </si>
+  <si>
+    <t>Focus Point</t>
+  </si>
+  <si>
+    <t>GK ADS</t>
+  </si>
+  <si>
+    <t>JAY Advertisment</t>
+  </si>
+  <si>
+    <t>MDS Ads</t>
+  </si>
+  <si>
+    <t>Megaa Arts</t>
+  </si>
+  <si>
+    <t>Minimax Sign</t>
+  </si>
+  <si>
+    <t>Multi Signs</t>
+  </si>
+  <si>
+    <t>Nandi Prints</t>
+  </si>
+  <si>
+    <t>Photon Productions</t>
+  </si>
+  <si>
+    <t>Rk Systems</t>
+  </si>
+  <si>
+    <t>Sign E Solutions</t>
+  </si>
+  <si>
+    <t>Trichy Signages</t>
+  </si>
+  <si>
+    <t>No Vendor</t>
+  </si>
+  <si>
+    <t>NN Advertising</t>
+  </si>
+  <si>
+    <t>Maruthi DMX</t>
+  </si>
+  <si>
+    <t>Mega Screen</t>
+  </si>
+  <si>
+    <t>Dc Flex</t>
+  </si>
+  <si>
+    <t>Usha Flex</t>
+  </si>
+  <si>
+    <t>Sign O Sign</t>
+  </si>
+  <si>
+    <t>Signage factory</t>
+  </si>
+  <si>
+    <t>Eswaagraphics</t>
+  </si>
+  <si>
+    <t>Balaji Enterprise</t>
+  </si>
+  <si>
+    <t>Big Dream Media</t>
+  </si>
+  <si>
+    <t>Acra Brands</t>
+  </si>
+  <si>
+    <t>TU Ads</t>
+  </si>
+  <si>
+    <t>Megadigital</t>
+  </si>
+  <si>
+    <t>AM Ads</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +164,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +458,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
